--- a/report_ca_nhan/LONG XUYÊN/NV-23 Lê Hoàng Thanh 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-23 Lê Hoàng Thanh 7-2024.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2571428.571428571</v>
+        <v>2714285.714285714</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3381428.571428571</v>
+        <v>3559285.714285714</v>
       </c>
     </row>
     <row r="30">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3381428.571428571</v>
+        <v>3559285.714285714</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/NV-23 Lê Hoàng Thanh 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-23 Lê Hoàng Thanh 7-2024.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2714285.714285714</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3559285.714285714</v>
+        <v>3915000</v>
       </c>
     </row>
     <row r="30">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3559285.714285714</v>
+        <v>3915000</v>
       </c>
     </row>
   </sheetData>
